--- a/mapeos.xlsx
+++ b/mapeos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cdcc893a2d4c89d/Documentos/UNIVERSIDAD/TESIS/Programa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cdcc893a2d4c89d/Documentos/UNIVERSIDAD/TESIS/Documentos Guia/Compartidos psicologia/Bases de Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1028" documentId="11_56E951B2D3E0D55073FA2711595ED87656CF3EA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F205A8A5-7892-4B0B-B815-83A6407BC6A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valores" sheetId="1" r:id="rId1"/>
@@ -1226,10 +1226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1519,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="A626" sqref="A626:A631"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:BF773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10216,7 +10212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2889953-5306-427F-A6BE-1CB6120CD055}">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
